--- a/Professional skills UP.xlsx
+++ b/Professional skills UP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6646F73F-176A-4EF1-81D5-0FF6DDD22950}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FFDCB6-BFCD-445E-9871-6686DE48757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FAEF004-21AC-4FE1-B9DC-190FB55CD215}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>Professional Skills</t>
   </si>
@@ -114,9 +114,6 @@
     <t>SPSS</t>
   </si>
   <si>
-    <t>Coursework and dissertation in MPH</t>
-  </si>
-  <si>
     <t>MS Office</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>Conflict Resolution</t>
   </si>
   <si>
-    <t>Health promotion course</t>
-  </si>
-  <si>
     <t>Regularly communicate with patients</t>
   </si>
   <si>
@@ -225,7 +219,31 @@
     <t>Continuing education and use</t>
   </si>
   <si>
-    <t>OOIS and LCS courses</t>
+    <t>SSD, OOIS and LCS courses</t>
+  </si>
+  <si>
+    <t>SSD, Health promotion course</t>
+  </si>
+  <si>
+    <t>BDS- Work, MSc CS</t>
+  </si>
+  <si>
+    <t>Manager of multiple clinics, SSD course</t>
+  </si>
+  <si>
+    <t>Python online shopping assignment, SSD course</t>
+  </si>
+  <si>
+    <t>Monolithic architecture knowledge and development</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Microservices and distributed system architecture</t>
+  </si>
+  <si>
+    <t>Coursework and dissertation in MPH, modules in MSc CS</t>
   </si>
 </sst>
 </file>
@@ -478,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -499,18 +517,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,24 +556,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +572,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEF1EBE-8E84-4BCA-8429-1E472A96DC82}">
-  <dimension ref="B1:K43"/>
+  <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,7 +882,7 @@
     <col min="2" max="2" width="69.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="54.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -891,22 +906,22 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="I4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -915,12 +930,12 @@
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -929,18 +944,18 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -949,18 +964,18 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -969,18 +984,18 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -989,18 +1004,18 @@
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -1009,18 +1024,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1029,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -1050,13 +1065,13 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -1069,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1130,7 +1145,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -1139,12 +1154,12 @@
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -1158,7 +1173,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -1172,7 +1187,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -1181,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -1214,7 +1229,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
@@ -1223,12 +1238,12 @@
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>23</v>
@@ -1237,12 +1252,12 @@
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>23</v>
@@ -1251,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
@@ -1265,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
@@ -1296,122 +1311,144 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="4"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="5">
-        <v>3</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D39" s="5">
         <v>4</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="5">
         <v>4</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" s="5">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5">
         <v>3</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
+      <c r="E42" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
